--- a/DesignDoc.xlsx
+++ b/DesignDoc.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="96" yWindow="24" windowWidth="11412" windowHeight="2376" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Adatbázis_USERS" sheetId="1" r:id="rId1"/>
+    <sheet name="Adatbázis" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="Funkciók" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
   <si>
     <t>users</t>
   </si>
@@ -93,12 +93,6 @@
     <t>Game</t>
   </si>
   <si>
-    <t>useronepoint</t>
-  </si>
-  <si>
-    <t>usertwopoint</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -156,23 +150,137 @@
     <t>LoggedInUserID, LocationID</t>
   </si>
   <si>
-    <t>login/user/admin/changepwd</t>
-  </si>
-  <si>
     <t>/change</t>
   </si>
   <si>
     <t>UserID,Password</t>
   </si>
   <si>
-    <t>UserID/(user.html)User,List&lt;Game&gt;,List&lt;User&gt;,List&lt;Location&gt;</t>
+    <t>userOneId</t>
+  </si>
+  <si>
+    <t>userTwoId</t>
+  </si>
+  <si>
+    <t>userOnePoint</t>
+  </si>
+  <si>
+    <t>userTwoPoint</t>
+  </si>
+  <si>
+    <t>locationId</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>changepwd</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>User,List&lt;User&gt;,List&lt;Location&gt;</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>User,List&lt;User&gt;,List&lt;Location&gt;,String (feedback)</t>
+  </si>
+  <si>
+    <t>String (feedback)</t>
+  </si>
+  <si>
+    <t>/admin/reglocation</t>
+  </si>
+  <si>
+    <t>/admin/regplayer</t>
+  </si>
+  <si>
+    <t>Name,Address,Rent</t>
+  </si>
+  <si>
+    <t>/admin/reggame</t>
+  </si>
+  <si>
+    <t>UserOneId,UserTwoId,UserOnePoints,UserTwoPoints,LocationId,Date</t>
+  </si>
+  <si>
+    <t>/logout</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>rentEUR</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>Gergő</t>
+  </si>
+  <si>
+    <t>Emi</t>
+  </si>
+  <si>
+    <t>Tamás</t>
+  </si>
+  <si>
+    <t>Krisztián</t>
+  </si>
+  <si>
+    <t>User getUserById(int id);</t>
+  </si>
+  <si>
+    <t>Location getLocationById(int id);</t>
+  </si>
+  <si>
+    <t>User regUser(User newuser);</t>
+  </si>
+  <si>
+    <t>Loctaion regLocation(Location newlocation);</t>
+  </si>
+  <si>
+    <t>Match regMatch(Match newmatch);</t>
+  </si>
+  <si>
+    <t>DATABASE</t>
+  </si>
+  <si>
+    <t>Game getGameById(int id);</t>
+  </si>
+  <si>
+    <t>List&lt;Game&gt; getGamesByLocationId(int id)</t>
+  </si>
+  <si>
+    <t>List&lt;Game&gt; getGamesByUserId(int id)</t>
+  </si>
+  <si>
+    <t>User getUserByNameAndPassword(String name, String password)</t>
+  </si>
+  <si>
+    <t>List&lt;User&gt; getPlayers()</t>
+  </si>
+  <si>
+    <t>List&lt;Location&gt; getLocations()</t>
+  </si>
+  <si>
+    <t>List&lt;Game&gt; getGames()</t>
+  </si>
+  <si>
+    <t>void updateUser(User user)</t>
+  </si>
+  <si>
+    <t>FRONTEND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,13 +289,32 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -199,14 +326,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Semleges" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -501,7 +633,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -656,10 +788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -712,10 +844,10 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -731,10 +863,10 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -752,7 +884,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -765,11 +897,17 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
+      <c r="D6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -780,17 +918,41 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -801,109 +963,422 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="62.21875" customWidth="1"/>
     <col min="4" max="4" width="58.21875" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1"/>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="3" customFormat="1"/>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDoc.xlsx
+++ b/DesignDoc.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagyb\Desktop\Java 4.1\GIT\jht41_squash\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE8398B-6376-47E0-807C-C681B2ADF099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="24" windowWidth="11412" windowHeight="2376" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adatbázis" sheetId="1" r:id="rId1"/>
@@ -243,9 +249,6 @@
     <t>Loctaion regLocation(Location newlocation);</t>
   </si>
   <si>
-    <t>Match regMatch(Match newmatch);</t>
-  </si>
-  <si>
     <t>DATABASE</t>
   </si>
   <si>
@@ -274,13 +277,16 @@
   </si>
   <si>
     <t>FRONTEND</t>
+  </si>
+  <si>
+    <t>Game regGame(Game newgame);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +348,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -388,7 +402,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,9 +434,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,6 +486,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -629,24 +679,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="7" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -666,7 +716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -686,12 +736,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -705,7 +755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -719,12 +769,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -747,7 +797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -770,7 +820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -787,19 +837,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -810,7 +860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -830,7 +880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -850,7 +900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -870,7 +920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -890,7 +940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -910,7 +960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -924,7 +974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
         <v>49</v>
       </c>
@@ -932,7 +982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
         <v>50</v>
       </c>
@@ -940,7 +990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
@@ -948,7 +998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
         <v>16</v>
       </c>
@@ -962,14 +1012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -979,7 +1029,7 @@
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -999,7 +1049,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1013,7 +1063,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1033,7 +1083,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1053,7 +1103,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1073,7 +1123,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1093,7 +1143,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1113,7 +1163,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1133,7 +1183,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1153,7 +1203,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1173,7 +1223,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -1193,7 +1243,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1213,7 +1263,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -1233,13 +1283,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1"/>
-    <row r="19" spans="1:4">
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>71</v>
       </c>
@@ -1247,7 +1297,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>72</v>
       </c>
@@ -1255,15 +1305,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>73</v>
       </c>
@@ -1271,7 +1321,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>74</v>
       </c>
@@ -1279,77 +1329,77 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="3" customFormat="1"/>
-    <row r="36" spans="1:4">
+    <row r="34" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>5</v>
       </c>
@@ -1357,7 +1407,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>38</v>
       </c>
@@ -1365,7 +1415,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>51</v>
       </c>
@@ -1373,7 +1423,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>52</v>
       </c>

--- a/DesignDoc.xlsx
+++ b/DesignDoc.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagyb\Desktop\Java 4.1\GIT\jht41_squash\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE8398B-6376-47E0-807C-C681B2ADF099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Adatbázis" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
   <si>
     <t>users</t>
   </si>
@@ -280,13 +274,25 @@
   </si>
   <si>
     <t>Game regGame(Game newgame);</t>
+  </si>
+  <si>
+    <t>/admin/import</t>
+  </si>
+  <si>
+    <t>/admin/export</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Mindenki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,7 +408,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,27 +440,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,24 +474,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -679,24 +649,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="7" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -716,7 +686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -736,12 +706,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -755,7 +725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -769,12 +739,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -797,7 +767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -820,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -837,19 +807,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="7" max="7" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -860,7 +830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -880,7 +850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -900,7 +870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -920,7 +890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -940,7 +910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -960,7 +930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -974,7 +944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="G8" t="s">
         <v>49</v>
       </c>
@@ -982,7 +952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="G9" t="s">
         <v>50</v>
       </c>
@@ -990,7 +960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
@@ -998,7 +968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="G11" t="s">
         <v>16</v>
       </c>
@@ -1012,14 +982,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1029,7 +999,7 @@
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1049,7 +1019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1063,7 +1033,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1083,7 +1053,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1103,7 +1073,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1123,7 +1093,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1143,7 +1113,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1163,7 +1133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1183,7 +1153,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1203,7 +1173,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1223,7 +1193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -1243,7 +1213,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1263,171 +1233,211 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>57</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" s="3" customFormat="1"/>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+    <row r="22" spans="1:6">
+      <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    <row r="23" spans="1:6">
+      <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+    <row r="24" spans="1:6">
+      <c r="C24" t="s">
         <v>76</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+    <row r="25" spans="1:6">
+      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+    <row r="26" spans="1:6">
+      <c r="C26" t="s">
         <v>74</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
+    <row r="27" spans="1:6">
+      <c r="C27" t="s">
         <v>85</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+    <row r="28" spans="1:6">
+      <c r="C28" t="s">
         <v>77</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+    <row r="29" spans="1:6">
+      <c r="C29" t="s">
         <v>78</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
+    <row r="30" spans="1:6">
+      <c r="C30" t="s">
         <v>79</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+    <row r="31" spans="1:6">
+      <c r="C31" t="s">
         <v>80</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
+    <row r="32" spans="1:6">
+      <c r="C32" t="s">
         <v>81</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
+    <row r="33" spans="1:4">
+      <c r="C33" t="s">
         <v>82</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
+    <row r="34" spans="1:4">
+      <c r="C34" t="s">
         <v>83</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:4" s="3" customFormat="1"/>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
+    <row r="39" spans="1:4">
+      <c r="C39" t="s">
         <v>5</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
+    <row r="40" spans="1:4">
+      <c r="C40" t="s">
         <v>38</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
+    <row r="41" spans="1:4">
+      <c r="C41" t="s">
         <v>51</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
+    <row r="42" spans="1:4">
+      <c r="C42" t="s">
         <v>52</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
         <v>67</v>
       </c>
     </row>
